--- a/Plan de Estudios/Plan Semanal FS Nuevo.xlsx
+++ b/Plan de Estudios/Plan Semanal FS Nuevo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Alva\Documents\Estudios\ExtraCurricular\Fusión Social\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Alva\Desktop\Scratch FS\Plan de Estudios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>Plan de Estudios</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Lunes</t>
   </si>
@@ -62,9 +59,6 @@
     <t>Rada, Mike, Dani, Patricio</t>
   </si>
   <si>
-    <t>Ejercicios de Scratch</t>
-  </si>
-  <si>
     <t>NOTA: Clasificar a los niños</t>
   </si>
   <si>
@@ -78,6 +72,51 @@
   </si>
   <si>
     <t>Juego de Unity al final del curso</t>
+  </si>
+  <si>
+    <t>Bledi, Yannick</t>
+  </si>
+  <si>
+    <t>Clasificación de Niños</t>
+  </si>
+  <si>
+    <t>Rodrigo y yo</t>
+  </si>
+  <si>
+    <t>Plan Semanal</t>
+  </si>
+  <si>
+    <t>Algoritmos</t>
+  </si>
+  <si>
+    <t>Enseñar algoritmos con ejemplos simples como lavarse los dientes, prepararse para la escuela o hacer hot cakes.</t>
+  </si>
+  <si>
+    <t>Interfaz de Scratch</t>
+  </si>
+  <si>
+    <t>¿Dónde está el escenario?</t>
+  </si>
+  <si>
+    <t>¿Cómo agregar un objeto?</t>
+  </si>
+  <si>
+    <t>¿Qué es un objeto?</t>
+  </si>
+  <si>
+    <t>¿Cómo agregar una imagen al escenario?</t>
+  </si>
+  <si>
+    <t>NOTA: HACER REMIND DE LO VISTO EL DIA ANTERIOR</t>
+  </si>
+  <si>
+    <t>Explicar propiedades de un objeto. El hecho de que cada objeto puede tener programas, disfraces y sonidos</t>
+  </si>
+  <si>
+    <t>Cómo hacer tu propio disfraz. NOTA: SIEMPRE DEJAR EL DISFRAZ EN EL CENTRO</t>
+  </si>
+  <si>
+    <t>Cómo agregar sonidos</t>
   </si>
 </sst>
 </file>
@@ -177,13 +216,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
@@ -503,92 +556,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>11</v>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
